--- a/DOWNLOADS/EDITAIS/U_102160_E_900062025_30-09-2025_09h00m/U_102160_E_900062025_30-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_102160_E_900062025_30-09-2025_09h00m/U_102160_E_900062025_30-09-2025_09h00m_master.xlsx
@@ -73,13 +73,13 @@
     <t>Impressora Térmica Impressora Térmica Resolução: 203DPI, Velocidade Impressão: 356MM/S, Tipo Conexão: Serial Rs232 E Usb 2.0, Características Adicionais: Touch Screen, Memória Mínima 8mb, Aplicação: Impressão De Etiquetas</t>
   </si>
   <si>
-    <t>Computador para a função de servidor de câmeras, novo, montado, composto pelas peças descritas abaixo, com as seguintes características mínimas: 1. Possuir PROCESSADOR com as seguintes características: a) Arquitetura x86 com suporte a 64 bits; b) Soquete LGA1700; c) 20 (vinte) núcleos físicos (8 P-core + 12 E-core); d) 28 (vinte e oito) threads; e) Frequência mínima P-core de 2.1 GHz; f) Frequência máxima P-core de 5.3 GHz; g) Frequência mínima E-core de 1.5 GHz; h) Frequência máxima E-core de 4.2 GHz; i) 33 (trintaetrês) MB de memória cache L3; j) Processo de fabricação em litografia de 7nm; k) Suporte à memória DDR5 de até 5600 MT/s; l) Suporte a até 192 GB de memória; m) Potência básica de 65 W; n) Acompanhar a solução térmica original de fábrica. Foto: modelo de referência (Intel Core i7-14700F) 2. Possuir MEMÓRIA RAM com as seguintes características: a) 02 (dois) módulos instalados com capacidade de 16 (dezesseis) GB cada módulo, totalizando 32 (trinta e dois) GB; b) Com tecnologia DDR5 de 4800 MT/s, Non-ECC. Foto: modelo de referência (Kingston KVR48U40BS8-16) 3. Possuir PLACA-MÃE (MOTHERBOARD) com as seguintes especificações: a) Com Chipset Intel B760; b) Soquete LGA1700; c) 04 (quatro) slots para módulos de memória RAM DDR5 de, pelo menos, 4800 MT/s, permitindo expansão para até 192 GB; d) Suportar tecnologia Dual Channel; e) 03 (três) slots M.2 para armazenamento, integrados à placa-mãe, com dissipadores de calor dedicados; f) 04 (quatro) portas SATA3 (6.0 Gb/s) integradas à placa-mãe, com suporte à RAID 0/1/5/10; g) 03 (três) slots de expansão com barramento PCI Express, sendo, pelo menos 01 (um) slot no padrão PCle 5.0 x16; h) 01 (uma) saída de vídeo on-board do tipo HDMI; i) 01 (uma) saída de vídeo on-board do tipo DisplayPort; j) 01 (uma) interface de rede Ethernet 2.5 Gb com conector RJ-45, integrada à placa-mãe, com Led indicador de status; k) 01 (uma) interface de rede Wi-Fi 6E (802.11ax) com Bluetooth; l) 07 (sete) portas USB tipo A, on-board, no painel traseiro, que devem fazer parte do projeto original da placa-mãe, sendo, no mínimo, 03 (três) portas na versão 3.0 ou superior; m) 01 (uma) porta USB tipo C ou 01 (uma) porta Thunderbolt tipo C, on-board, no painel traseiro, que deve fazer parte do projeto original da placa-mãe; n) 05 (cinco) conectores de áudio no painel traseiro; o) 01 (uma) porta de saída óptica S/PDIF no painel traseiro; p) 06 (seis) conectores (headers) para ventoinha, sendo 03 (três) conectores de ventoinha para o gabinete; q) 01 (um) conector de alimentação principal de 24 pinos; r) 02 (dois) conectores de alimentação auxiliar de 8 pinos; s) Formato: micro-ATX; t) Possuir BIOS UEFI com as seguintes características: i. Deverá estar gravado em memória do tipo “flash ROM” ou equivalente, que permita a sua atualização e/ou recuperação a partir de USB ou software de gerenciamento ou ainda diretamente pelo sistema operacional; ii. Possuir controle de acesso com senhas separadas para o usuário comum e para o administrador do equipamento. Foto: modelo de referência (Asus TUF Gaming B760M-PLUS WIFI II) 4. Possuir UNIDADES DE ARMAZENAMENTO com as seguintes características: a) 01 (uma) unidade de estado sólido (SSD) M.2 2280 PCle 4.0 x4 NVMe, interna, instalada em slot M.2 com suporte ao modo PCle 4.0 x4, com capacidade de 1TB, com velocidade de leitura de 6.000 MB/s e velocidade de gravação de 4.000 MB/s; Foto: modelo de referência (Kingston NV3 SNV3S/1000G) b) 03 (três) unidades de disco rígido (HDD) de 3.5 pol., internas, instaladas, com tecnologia CMR, SATA3 (6.0 Gb/s), 5400 RPM, cache de 256 MB, surveillance, com capacidade de 4TB cada unidade; Foto: modelo de referência (WD Purple WD43PURZ) c) Não serão aceitas unidades usadas, recondicionadas, renovadas, ou em condições similares. 5. Possuir PLACA GRÁFICA (GPU) com as seguintes características: a) 01 (uma) placa gráfica (GPU) dedicada, instalada em slot PCle 5.0 x16, com as seguintes especificações mínimas: i. Memória: 8GB GDDR6; ii. Interface de memória: 128-bit; iii. Cuda Cores: 2.560; iv. Tensor Cores: 3º geração; v. Ray Tracing Cores: 2º geração; vi. Interface de conexão: PCI Express 4.0; vii. Capacidade computacional: 8.6; viii. Suporte às seguintes tecnologias: OpenGL 4.6 e DirectX 12; ix. 03 (três) saídas de vídeo, sendo, pelo menos, 01 (uma) saída do tipo HDMI; x. Dissipador de calor com ventilação dupla. Foto: modelo de referência (NVidia GeForce RTX 3050) 6. Possuir GABINETE com as seguintes características: Gabinete para RACK 19” 4U; Compatível com placas mãe nos formatos ATX e Micro-ATX; Possuir 01 (um) ventilador interno 120x120mm com rolamento; Possuir espaço interno para instalação de, pelo menos, 02 (dois) ventiladores adicionais; Possuir 03 (três) baias de 5.25 pol. com acesso frontal; Possuir 01 (uma) baia de 3.5 pol. com acesso frontal; Possuir 08 (oito) baias internas de 3.5 pol.; Espaço interno livre para instalação de fonte de alimentação ATX; Estrutura em chapa de metal com pintura em epóxi pó preto; Dimensões mínimas (A x L x P): 177 x 481 x 445 mm; Painel frontal com, no mínimo: i. Botões Liga/Desliga e Reset; ii. 01 (um) led indicador de power on; iii. 04 (quatro) leds indicadores de atividade de disco (HDD); iv. 02 (duas) portas USB na versão 2.0 ou superior; v. 01 (uma) fechadura com chave de segurança; vi. Entrada de ar frontal com filtro removível. Foto: modelo de referência (NILKO 19” 4U ATX) 7. Possuir FONTE DE ALIMENTAÇÃO ATX montada internamente ao gabinete, com as seguintes características: a) Tensão de alimentação nominal de 100-240 VAC (+/-10%), 60Hz, chaveada automaticamente; b) Fornecer potência de, no mínimo, 850W reais com PFC ativo e mínimo de 90% de eficiência; c) Com ventoinha de 120mm; d) Possuir certificação 80 PLUS GOLD; e) MTBF: mínimo de 100.000 horas; f) Ser totalmente modular; g) Oferecer as seguintes proteções: OVP, OPP, SCP, UVP, OTP, OCP; h) Possuir os seguintes conectores: 01x ATX 24 pinos, 02 x EPS 8 pinos (4+4 pinos), 12 x SATA, 04 x PCl-e 6+2 pinos, 04 x Molex. Foto: modelo de referência (Cooler Master MWWVE GOLD 850 V2) 8. Orientações Gerais: a) O computador ofertado deverá ser entregue pela licitante MONTADO com todas as peças especificadas neste edital; b) O computador ofertado deverá ser entregue pela licitante com o Sistema Operacional Microsoft Windows 10 x64, ou superior, instalado na unidade de estado sólido (SSD), SEM ATIVAÇÃO DA LICENÇA DE USO, apenas para COMPROVAR a funcionalidade e a compatibilidade geral das peças ofertadas; c) Todas as peças ofertadas devem ser NOVAS e fabricadas com materiais de alta qualidade. NÃO SERÃO ACEITOS, em nenhuma hipótese, peças ou acessórios usados, adaptados, reformados ou remanufaturados; d) TODAS AS EMBALAGENS, MANUAIS E ACESSÓRIOS originais das peças ofertadas deverão ser entregues pela licitante à Contratante; e) Os modelos de referência e suas respectivas fotos apresentadas neste edital têm a função de orientar as licitantes na escolha das melhores opções de produtos que se adéquam às características técnicas mínimas exigidas. Assim, ressaltamos que serão aceitas outras marcas e modelos, desde que cumpram rigorosamente as exigências técnicas mínimas estipuladas neste edital; f) As licitantes deverão apresentar descrição técnica detalhada das peças ofertadas e anexar a respectiva documentação, para comprovação das especificações técnicas mínimas. A proposta que não cumprir o disposto neste item será DESCLASSIFICADA; g) NÃO SERÃO ACEITAS propostas iniciais com descrições genéricas, tais como “conforme edital”, “de acordo com o edital”, etc., sendo DESCLASSIFICADAS caso não apresentem a descrição exata da marca e modelo dos itens ofertados. 9. Garantia: a) Prazo mínimo de garantia de 12 (doze) meses, a contar do recebimento definitivo dos equipamentos e de seus acessórios; b) O atendimento no período coberto pela garantia inclui mão de obra e peças. Em caso da necessidade de manutenção do equipamento fora das dependências físicas da Contratante, o transporte, seguros e outros custos deverão ser cobertos pela mesma garantia; c) A garantia técnica oferecida pela licitante deverá contemplar a substituição dos discos (HDD e/ou SSD), em caso de aviso de pré-falha, durante o período coberto pela garantia; d) A garantia não será afetada caso o setor de TI da Contratante venha a formatar o equipamento e/ou instalar o sistema operacional bem como seus aplicativos; e) A garantia não será afetada caso o setor de TI da Contratante venha a instalar ou remover componentes, tais como placas de rede, placas de vídeo, interfaces específicas para acionamento de outros equipamentos, unidades de disco (HDD e/ou SSD), módulos de memória RAM,, etc., ressaltando que as garantias desses opcionais são de total responsabilidade da Contratante. 10. Embalagem: a) O equipamento deverá vir acondicionado em embalagem individual adequada de forma a garantir a máxima proteção durante o transporte e armazenagem.</t>
-  </si>
-  <si>
-    <t>Notebook, novo, montado, na cor preta, prata, grafite, cinza ou chumbo, com as seguintes características mínimas: 1. Possuir PROCESSADOR com as seguintes características: a) Arquitetura x86 com suporte a 64 bits; b) Processo de fabricação em litografia de 7hm; c) 08 (oito) núcleos físicos (cores); d) 12 (doze) threads; e) Frequência turbo máxima de, pelo menos, 4.6 GHz; f) 12 (doze) MB de memória cache L3; g) Suporte às instruções AVX?2; h) Suporte à tecnologia AES; i) Suporte à módulos de memórias DDR4 de até 3200 MT/s e DDR5 de até 5200 MT/s; j) Suporte a até 96 GB de memória; k) Controladora gráfica integrada, com frequência máxima de, pelo menos, 1.25 GHz; l) Com data de lançamento igual ou superior a 2023. 2. Possuir MEMÓRIA RAM com as seguintes características: a) 02 (dois) módulos instalados com capacidade de 8 (oito) GB cada, totalizando 16 (dezesseis) GB; b) Com tecnologia DDR4 e frequência de, pelo menos, 2666 MT/s. 3. Possuir UNIDADE DE ARMAZENAMENTO com as seguintes características: a) 01 (uma) unidade de estado sólido (SSD) PCle NVMe M.2, interna, com capacidade mínima de 512GB, configurada e instalada com o sistema operacional; b) O1 (um) slot livre para a instalação opcional de uma unidade de armazenamento HDD/SSD SATA de 2,5 polegadas. 4. TELA com as seguintes características: a) Tamanho da tela de 15,6”; b) Resolução Full HD (1920 x 1080), 250 rnits; c) Com tecnologia antirreflexo. 5. Possuir TECLADO com as seguintes características: a) 01 (um) teclado, layout Português-BR (ABNT2), com teclado numérico dedicado. 6. Possuir DISPOSITIVO APONTADOR com as seguintes características: a) 01 (um) touchpad, com controle preciso do cursor, com toque múltiplo e 02 (dois) botões integrados. 7. Possuir PORTAS E CONEXÕES com as seguintes características: a) 02 (duas) portas USB tipo A, sendo, pelo menos, 01 (uma) porta na versão 3.2; b) 01 (uma) porta USB tipo C, na versão 3.2; c) 01 (uma) porta HDMI; d) 01 (uma) porta combinada para fone de ouvido e microfone. 8. Possuir ÁUDIO, com as seguintes características: a) Placa de som integrada; b) 02 (dois) alto-falantes estéreos, integrados, de 1,5 W. 9. Possuir CONECTIVIDADE, com as seguintes características: a) Placa de rede Wi-Fi 6 (802.11ax), 2x2, com Bluetooth. 10. Possuir WEBCAM, com as seguintes características: a) 01 (uma) câmera com resolução HD, com microfone integrado; b) Com obturador de privacidade. 11. DIMENSÕES e PESO: a) Largura máxima de 36 cm; b) Peso máximo de 1,70 kg. 12. Especificações elétricas: a) Possuir 01 (uma) bateria interna de, no mínimo, 38 Wh; b) Possuir 01 (uma) fonte carregadora de energia, bivolt automática, original do equipamento ofertado. 13. Possuir SISTEMA OPERACIONAL e licença de uso: a) O equipamento ofertado deverá possuir o Sistema Operacional Microsoft Windows 11, na versão Professional, 64 bits, Português-BR, pré-instalado na unidade de estado sólido (SSD), acompanhado da respectiva licença de uso para cada notebook fornecido; b) O fabricante deverá disponibilizar mídia OEM ou outro meio equivalente que permita realizar a instalação/recuperação do sistema operacional em caso de pane do sistema, formatação e/ou substituição da unidade de estado sólido (SSD). 14. Garantia: a) Prazo mínimo de garantia de 12 (doze) meses, a contar do recebimento definitivo dos equipamentos e de seus acessórios; b) O fabricante deverá disponibilizar gratuitamente na Internet, atualizações de BIOS, drivers e aplicativos desenvolvidos pelo fabricante; c) O atendimento no período coberto pela garantia, descrita acima, inclui mão de obra e peças. Em caso da necessidade de manutenção do equipamento fora das dependências físicas da Contratante, o transporte, seguros e outros custos deverão ser cobertos pela mesma garantia; d) A garantia técnica oferecida pelo fabricante deverá contemplar a substituição da unidade de estado sólido (SSD) em caso de aviso de pré-falha; e) A garantia não será afetada caso o setor de TI da Contratante venha a formatar o equipamento e/ou instalar outro sistema operacional bem como aplicativos; f) A garantia não será afetada caso o setor de TI da Contratante venha a instalar ou remover componentes, tais como unidades de armazenamento (SSD/HDD), módulos de memória RAM, etc., ressaltando que as garantias desses opcionais são de total responsabilidade da Contratante. 15. Orientações Gerais: a) Os equipamentos ofertados devem ser NOVOS. NÃO SERÃO ACEITOS, em nenhuma hipótese, equipamentos usados, adaptados, reformados (refurbished), remanufaturados ou em condição semelhante; b) Os modelos de referência e suas respectivas fotos apresentados neste edital têm a função de orientar as licitantes na escolha das melhores opções de equipamentos que se adéquam às características técnicas mínimas exigidas. Assim, ressaltamos que serão aceitas outras marcas e modelos, desde que cumpram rigorosamente as exigências técnicas mínimas estipuladas neste edital; c) As licitantes deverão apresentar descrição técnica detalhada do equipamento ofertado e anexar a respectiva documentação, para comprovação das especificações técnicas mínimas. A proposta que não cumprir o disposto neste item será DESCLASSIFICADA; d) NÃO SERÃO ACEITAS propostas iniciais com descrições genéricas, tais como “conforme edital”, “de acordo com o edital”, etc., sendo DESCLASSIFICADAS caso não apresentem a descrição exata da marca e modelo do equipamento ofertado. 16. Embalagem: a) Os equipamentos deverão vir acondicionados em embalagem individual adequada de forma a garantir a máxima proteção durante o transporte e armazenagem.</t>
-  </si>
-  <si>
-    <t>Multifuncional Laser Colorida com funções de Impressora, Copiadora, Scanner e Fax, de mesa, nova, com tela sensível ao toque, com as seguintes especificações mínimas: 1. Tecnologia de impressão: a) Laser colorida. 2. Velocidade de impressão: a) Na cor preta: 33 ppm; b) Em cores: 33 ppm. 3. Memória RAM: a) Mínimo de 512 MB. 4. Processador: a) Velocidade de 1.2 GHz. 5. Painel de operação: a) Tela colorida sensível ao toque de 4,3 polegadas. 6. Resolução de impressão: a) Na cor preta: 600 x 600 dpi; b) Em cores: 600 x 600 dpi. 7. Tempo de saída da primeira página: a) Na cor preta: máximo de 9,5 segundos; b) Em cores: máximo de 10,5 segundos. 8. Impressão frente e verso: a) Duplex automático (padrão). 9. Interfaces: a) 01 (uma) porta de rede Gigabit Ethernet com conector RJ-45; b) 01 (uma) porta USB, Tipo A, na versão 2.0; c) 01 (uma) porta USB, Tipo B, na versão 2.0. 10. Quantidade de bandejas: a) 03 (três) bandejas, sendo 01 (uma) bandeja padrão, 01 (uma) bandeja de alimentação manual e 01 (um) alimentador de originais (ADF). 11. Tamanhos de papel suportados: a) Carta, Ofício, A4, A5, B5. 12. Capacidade das bandejas de entrada: a) Bandeja padrão: 250 folhas; b) Bandeja de alimentação manual: 1 folha; c) Alimentador de originais (ADF): 50 folhas. 13. Capacidade da bandeja de saída: a) 150 folhas. 14. Velocidade de cópia: a) Na cor preta: 33 cpm; b) Em cores: 33 cpm. 15. Resolução de digitalização: a) 600 x 600 dpi. 16. Ampliação/Redução da cópia: a) De 25% a 400%. 17. Modos de digitalização suportados: a) Digitalizar para e-mail; b) Digitalizar para pasta de rede; c) Digitalizar para unidade USB. 18. Formatos de arquivos digitalizados: a) PDF, JPG, TIFF. 19. FAX: a) Taxa de transmissão: 33,6 Kbps; b) Velocidade: máximo de 5 segundos por página. 20. Emulação: a) PCL 5c, PCL 6, PostScript 3. 21. Sistemas operacionais compatíveis: a) Microsoft Windows 10/11, Apple Mac OS, Linux. 22. Protocolos de rede: a) TCP/IP IPv6, TOP/IP IPv4. 23. Ciclo de vida (trabalho) mensal: a) Pelo menos 50.000 páginas. 24. Volume de trabalho mensal recomendado: a) Pelo menos 4.000 páginas. 25. Requisitos elétricos: a) Tensão de alimentação de 110-127 VAC (+/-10%), 60 Hz; b) Fonte de alimentação interna. 26. Acessórios: a) Deve acompanhar os seguintes itens: i. 01 (um) cabo de alimentação com 03 (três) pinos segundo a norma NBR 14136, compatível com a potência elétrica do equipamento; ii. Cartuchos de toners originais nas cores preta, ciano, magenta e amarela. Não serão aceitos cartuchos remanufaturados, recondicionados, compatíveis ou similares, uma vez que o equipamento estará em período de garantia; iii. Manuais técnicos de instalação e operação em português. 27. Orientações Gerais: b) Os equipamentos ofertados devem ser NOVOS e fabricados com materiais de alta qualidade. NÃO SERÃO ACEITOS, em nenhuma hipótese, equipamentos, peças ou acessórios usados, adaptados, reformados ou remanufaturados; c) Os modelos de referência e suas respectivas fotos apresentadas neste edital têm a função de orientar as licitantes na escolha das melhores opções de produtos que se adéquam às características técnicas mínimas exigidas. Assim, ressaltamos que serão aceitas outras marcas e modelos, desde que cumpram rigorosamente as exigências técnicas mínimas estipuladas neste edital; d) As licitantes deverão apresentar descrição técnica detalhada dos equipamentos ofertados e anexar a respectiva documentação, para comprovação das especificações técnicas mínimas. A proposta que não cumprir o disposto neste item será DESCLASSIFICADA; e) NÃO SERÃO ACEITAS propostas iniciais com descrições genéricas, tais como “conforme edital”, “de acordo com o edital”, etc., sendo DESCLASSIFICADAS caso não apresentem a descrição exata da marca e modelo dos itens ofertados. 28. Garantia: a) Prazo mínimo de garantia de 12 (doze) meses, a contar do recebimento definitivo dos equipamentos e de seus acessórios; b) O atendimento no período coberto pela garantia inclui mão de obra e peças. Em caso da necessidade de manutenção do equipamento fora das dependências físicas da Contratante, o transporte, seguros e outros custos deverão ser cobertos pela mesma garantia. 29. Embalagem: a) O equipamento deverá vir acondicionado em embalagem individual adequada de forma a garantir a máxima proteção durante o transporte e armazenagem.</t>
+    <t>Computador para a função de servidor de câmeras, novo, montado, composto pelas peças descritas abaixo, com as seguintes características mínimas: 1. Possuir PROCESSADOR com as seguintes características: a) Arquitetura x86 com suporte a 64 bits; b) Soquete LGA1700; c) 20 (vinte) núcleos físicos (8 P-core + 12 E-core); d) 28 (vinte e oito) threads; e) Frequência mínima P-core de 2.1 GHz; f) Frequência máxima P-core de 5.3 GHz; g) Frequência mínima E-core de 1.5 GHz; h) Frequência máxima E-core de 4.2 GHz; i) 33 (trintaetrês) MB de memória cache L3; j) Processo de fabricação em litografia de 7nm; k) Suporte à memória DDR5 de até 5600 MT/s; l) Suporte a até 192 GB de memória; m) Potência básica de 65 W; n) Acompanhar a solução térmica original de fábrica. 2. Possuir MEMÓRIA RAM com as seguintes características: a) 02 (dois) módulos instalados com capacidade de 16 (dezesseis) GB cada módulo, totalizando 32 (trinta e dois) GB; b) Com tecnologia DDR5 de 4800 MT/s, Non-ECC. 3. Possuir PLACA-MÃE (MOTHERBOARD) com as seguintes especificações: a) Com Chipset Intel B760; b) Soquete LGA1700; c) 04 (quatro) slots para módulos de memória RAM DDRS5 de, pelo menos, 4800 MT/s, permitindo expansão para até 192 GB; d) Suportar tecnologia Dual Channel; e) 03 (três) slots M.2 para armazenamento, integrados à placa-mãe, com dissipadores de calor dedicados; f) 04 (quatro) portas SATA3 (6.0 Gb/s) integradas à placa-mãe, com suporte à RAID 0/1/5/10; g) 03 (três) slots de expansão com barramento PCI Express, sendo, pelo menos 01 (um) slot no padrão PCle 5.0 x16; h) 01 (uma) saída de vídeo on-board do tipo HDMI; i) 01 (uma) saída de vídeo on-board do tipo DisplayPort; j) 01 (uma) interface de rede Ethernet 2.5 Gb com conector RJ-45, integrada à placa-mãe, com Led indicador de status; k) 01 (uma) interface de rede Wi-Fi 6E (802.11ax) com Bluetooth; l) 07 (sete) portas USB tipo A, on-board, no painel traseiro, que devem fazer parte do projeto original da placa-mãe, sendo, no mínimo, 03 (três) portas na versão 3.0 ou superior; m) 01 (uma) porta USB tipo C ou 01 (uma) porta Thunderbolt tipo C, on-board, no painel traseiro, que deve fazer parte do projeto original da placa-mãe; n) 05 (cinco) conectores de áudio no painel traseiro; o) 01 (uma) porta de saída óptica S/PDIF no painel traseiro; p) 06 (seis) conectores (headers) para ventoinha, sendo 03 (três) conectores de ventoinha para o gabinete; q) 01 (um) conector de alimentação principal de 24 pinos; r) 02 (dois) conectores de alimentação auxiliar de 8 pinos; s) Formato: micro-ATX; t) Possuir BIOS UEFI com as seguintes características: i. Deverá estar gravado em memória do tipo “flash ROM” ou equivalente, que permita a sua atualização e/ou recuperação a partir de USB ou software de gerenciamento ou ainda diretamente pelo sistema operacional; ii. Possuir controle de acesso com senhas separadas para o usuário comum e para o administrador do equipamento. 4. Possuir UNIDADES DE ARMAZENAMENTO com as seguintes características: a) 01 (uma) unidade de estado sólido (SSD) M.2 2280 PCle 4.0 x4 NVMe, interna, instalada em slot M.2 com suporte ao modo PCle 4.0 x4, com capacidade de 1TB, com velocidade de leitura de 6.000 MB/s e velocidade de gravação de 4.000 M/s; b) 03 (três) unidades de disco rígido (HDD) de 3.5 pol., internas, instaladas, com tecnologia CMR, SATA3 (6.0 Gb/s), 5400 RPM, cache de 256 MB, surveillance, com capacidade de 4TB cada unidade; c) Não serão aceitas unidades usadas, recondicionadas, renovadas, ou em condições similares. 5. Possuir PLACA GRÁFICA (GPU) com as seguintes características: a) 01 (uma) placa gráfica (GPU) dedicada, instalada em slot PCle 5.0 x16, com as seguintes especificações mínimas: i Memória: 8GB GDDRS6; ii. Interface de memória: 128-bit; iii. Cuda Cores: 2.560; iv. Tensor Cores: 3º geração; v. Ray Tracing Cores: 2º geração; vi. Interface de conexão: PCI Express 4.0; vii. Capacidade computacional: 8.6; viii. Suporte às seguintes tecnologias: OpenGL 4.6 e DirectX 12; ix. 03 (três) saídas de vídeo, sendo, pelo menos, 01 (uma) saída do tipo HDMI; x. Dissipador de calor com ventilação dupla. 6. Possuir GABINETE com as seguintes características: Gabinete para RACK 19” 4U; Compatível com placas mãe nos formatos ATX e Micro-ATX; Possuir 01 (um) ventilador interno 120x120mm com rolamento; Possuir espaço interno para instalação de, pelo menos, 02 (dois) ventiladores adicionais; Possuir 03 (três) baias de 5.25 pol. com acesso frontal; Possuir 01 (uma) baia de 3.5 pol. com acesso frontal; Possuir 08 (oito) baias internas de 3.5 pol.; Espaço interno livre para instalação de fonte de alimentação ATX; Estrutura em chapa de metal com pintura em epóxi pó preto; Dimensões mínimas (A x L x P): 177 x 481 x 445 mm; Painel frontal com, no mínimo: i. — Botões Liga/Desliga e Reset; ii. —O1 (um) led indicador de power on; iii. — 04 (quatro) leds indicadores de atividade de disco (HDD); iv. — 02 (duas) portas USB na versão 2.0 ou superior; v. 01 (uma)fechadura com chave de segurança; vi. —Entrada de ar frontal com filtro removível. 7. Possuir FONTE DE ALIMENTAÇÃO ATX montada internamente ao gabinete, com as seguintes características: a) Tensão de alimentação nominal de 100-240 VAC (+/-10%), 60Hz, chaveada automaticamente; b) Fornecer potência de, no mínimo, 850W reais com PFC ativo e mínimo de 90% de eficiência; c) Com ventoinha de 120mm; d) Possuir certificação 80 PLUS GOLD; e) MTBF: mínimo de 100.000 horas; f) Ser totalmente modular; g) Oferecer as seguintes proteções: OVP, OPP, SCP, UVP, OTP, OCP; h) Possuir os seguintes conectores: 01x ATX 24 pinos, 02 x EPS 8 pinos (4+4 pinos), 12 x SATA, 04 x PCl-e 6+2 pinos, 04 x Molex. 8. Orientações Gerais: a) O computador ofertado deverá ser entregue pela licitante MONTADO com todas as peças especificadas neste edital; b) O computador ofertado deverá ser entregue pela licitante com o Sistema Operacional Microsoft Windows 10 x64, ou superior, instalado na unidade de estado sólido (SSD), SEM ATIVAÇÃO DA LICENÇA DE USO, apenas para COMPROVAR a funcionalidade e a compatibilidade geral das peças ofertadas; c) Todas as peças ofertadas devem ser NOVAS e fabricadas com materiais de alta qualidade. NÃO SERÃO ACEITOS, em nenhuma hipótese, peças ou acessórios usados, adaptados, reformados ou remanufaturados; d) TODAS AS EMBALAGENS, MANUAIS E ACESSÓRIOS originais das peças ofertadas deverão ser entregues pela licitante à Contratante; e) Os modelos de referência e suas respectivas fotos apresentadas neste edital têm a função de orientar as licitantes na escolha das melhores opções de produtos que se adequam às características técnicas mínimas exigidas. Assim, ressaltamos que serão aceitas outras marcas e modelos, desde que cumpram rigorosamente as exigências técnicas mínimas estipuladas neste edital; f) As licitantes deverão apresentar descrição técnica detalhada das peças ofertadas e anexar a respectiva documentação, para comprovação das especificações técnicas mínimas. A proposta que não cumprir o disposto neste item será DESCLASSIFICADA; g) NÃO SERÃO ACEITAS propostas iniciais com descrições genéricas, tais como “conforme edital”, “de acordo com o edital”, etc., sendo DESCLASSIFICADAS caso não apresentem a descrição exata da marca e modelo dos itens ofertados. 9. Garantia: a) Prazo mínimo de garantia de 12 (doze) meses, a contar do recebimento definitivo dos equipamentos e de seus acessórios; b) O atendimento no período coberto pela garantia inclui mão de obra e peças. Em caso da necessidade de manutenção do equipamento fora das dependências físicas da Contratante, o transporte, seguros e outros custos deverão ser cobertos pela mesma garantia; c) A garantia técnica oferecida pela licitante deverá contemplar a substituição dos discos (HDD e/ou SSD), em caso de aviso de pré-falha, durante o período coberto pela garantia; d) A garantia não será afetada caso o setor de TI da Contratante venha a formatar o equipamento e/ou instalar o sistema operacional bem como seus aplicativos; e) A garantia não será afetada caso o setor de TI da Contratante venha a instalar ou remover componentes, tais como placas de rede, placas de vídeo, interfaces específicas para acionamento de outros equipamentos, unidades de disco (HDD e/ou SSD), módulos de memória RAM,, etc., ressaltando que as garantias desses opcionais são de total responsabilidade da Contratante. 10. Embalagem: a) O equipamento deverá vir acondicionado em embalagem individual adequada de forma a garantir a máxima proteção durante o transporte e armazenagem.</t>
+  </si>
+  <si>
+    <t>Notebook, novo, montado, na cor preta, prata, grafite, cinza ou chumbo, com as seguintes características mínimas: 1. Possuir PROCESSADOR com as seguintes características: a) Arquitetura x86 com suporte a 64 bits; b) Processo de fabricação em litografia de 7nm; c) 08 (oito)núcleos físicos (cores); d) 12 (doze)threads; e) Frequência turbo máxima de, pelo menos, 4.6 GHz; f) 12 (doze) MB de memória cache L3; g) Suporte às instruções AVX?2; h) Suporte à tecnologia AES; i) Suporte à módulos de memórias DDR4 de até 3200 MT/s e DDR5 de até 5200 MT/s; j) Suporte a até 96 GB de memória; k) Controladora gráfica integrada, com frequência máxima de, pelo menos, 1.25 GHz; l) Com data de lançamento igual ou superior a 2023. 2. Possuir MEMÓRIA RAM com as seguintes características: a) 02 (dois) módulos instalados com capacidade de 8 (oito) GB cada, totalizando 16 (dezesseis) GB; b) Com tecnologia DDR4 e frequência de, pelo menos, 2666 MT/s. 3. Possuir UNIDADE DE ARMAZENAMENTO com as seguintes características: a) 01 (uma) unidade de estado sólido (SSD) PCle NVMe M.2, interna, com capacidade mínima de 512GB, configurada e instalada com o sistema operacional; b) 01 (um) slot livre para a instalação opcional de uma unidade de armazenamento HDD/SSD SATA de 2,5 polegadas. 4. TELA com as seguintes características: a) Tamanho da tela de 15,6”; b) Resolução Full HD (1920 x 1080), 250 rnits; c) Com tecnologia antirreflexo. 5. Possuir TECLADO com as seguintes características: a) 01 (um) teclado, layout Português-BR (ABNT2), com teclado numérico dedicado. 6. Possuir DISPOSITIVO APONTADOR com as seguintes características: a) 01 (um) touchpad, com controle preciso do cursor, com toque múltiplo e 02 (dois) botões integrados. 7. Possuir PORTAS E CONEXÕES com as seguintes características: a) 02 (duas) portas USB tipo A, sendo, pelo menos, 01 (uma) porta na versão 3.2; b) 01 (uma) porta USB tipo C, na versão 3.2; c) 01 (uma) porta HDMI; d) 01 (uma) porta combinada para fone de ouvido e microfone. 8. Possuir ÁUDIO, com as seguintes características: a) Placa de som integrada; b) 02 (dois) alto-falantes estéreos, integrados, de 1,5 W. 9. Possuir CONECTIVIDADE, com as seguintes características: a) Placa de rede Wi-Fi 6 (802.11ax), 2x2, com Bluetooth. 10. Possuir WEBCAM, com as seguintes características: a) 01 (uma) câmera com resolução HD, com microfone integrado; b) Com obturador de privacidade. 11. DIMENSÕES e PESO: a) Largura máxima de 36 cm; b) Peso máximo de 1,70 kg. 12. Especificações elétricas: a) Possuir 01 (uma) bateria interna de, no mínimo, 38 Wh; b) Possuir 01 (uma) fonte carregadora de energia, bivolt automática, original do equipamento ofertado. 13. Possuir SISTEMA OPERACIONAL e licença de uso: a) O equipamento ofertado deverá possuir o Sistema Operacional Microsoft Windows 11, na versão Professional, 64 bits, Português-BR, pré-instalado na unidade de estado sólido (SSD), acompanhado da respectiva licença de uso para cada notebook fornecido; b) O fabricante deverá disponibilizar mídia OEM ou outro meio equivalente que permita realizar a instalação/recuperação do sistema operacional em caso de pane do sistema, formatação e/ou substituição da unidade de estado sólido (SSD). 14. Garantia: a) Prazo mínimo de garantia de 12 (doze) meses, a contar do recebimento definitivo dos equipamentos e de seus acessórios; b) O fabricante deverá disponibilizar gratuitamente na Internet, atualizações de BIOS, drivers e aplicativos desenvolvidos pelo fabricante; c) O atendimento no período coberto pela garantia, descrita acima, inclui mão de obra e peças. Em caso da necessidade de manutenção do equipamento fora das dependências físicas da Contratante, o transporte, seguros e outros custos deverão ser cobertos pela mesma garantia; d) A garantia técnica oferecida pelo fabricante deverá contemplar a substituição da unidade de estado sólido (SSD) em caso de aviso de pré-falha; e) A garantia não será afetada caso o setor de TI da Contratante venha a formatar o equipamento e/ou instalar outro sistema operacional bem como aplicativos; f) A garantia não será afetada caso o setor de TI da Contratante venha a instalar ou remover componentes, tais como unidades de armazenamento (SSD/HDD), módulos de memória RAM, etc., ressaltando que as garantias desses opcionais são de total responsabilidade da Contratante. 15. Orientações Gerais: a) Os equipamentos ofertados devem ser NOVOS. NÃO SERÃO ACEITOS, em nenhuma hipótese, equipamentos usados, adaptados, reformados (refurbished), remanufaturados ou em condição semelhante; b) Os modelos de referência e suas respectivas fotos apresentados neste edital têm a função de orientar as licitantes na escolha das melhores opções de equipamentos que se adequam às características técnicas mínimas exigidas. Assim, ressaltamos que serão aceitas outras marcas e modelos, desde que cumpram rigorosamente as exigências técnicas mínimas estipuladas neste edital; c) As licitantes deverão apresentar descrição técnica detalhada do equipamento ofertado e anexar a respectiva documentação, para comprovação das especificações técnicas mínimas. A proposta que não cumprir o disposto neste item será DESCLASSIFICADA; d) NÃO SERÃO ACEITAS propostas iniciais com descrições genéricas, tais como “conforme edital”, “de acordo com o edital”, etc., sendo DESCLASSIFICADAS caso não apresentem a descrição exata da marca e modelo do equipamento ofertado. 16. Embalagem: a) Os equipamentos deverão vir acondicionados em embalagem individual adequada de forma a garantir a máxima proteção durante o transporte e armazenagem.</t>
+  </si>
+  <si>
+    <t>Multifuncional Laser Colorida com funções de Impressora, Copiadora, Scanner e Fax, de mesa, nova, com tela sensível ao toque, com as seguintes especificações mínimas: 1. Tecnologia de impressão: a) Laser colorida. 2. Velocidade de impressão: a) Na cor preta: 33 ppm; b) Em cores: 33 ppm. 3. Memória RAM: a) Mínimo de 512 MB. 4. Processador: a) Velocidade de 1.2 GHz. 5. Painel de operação: a) Tela colorida sensível ao toque de 4,3 polegadas. 6. Resolução de impressão: a) Na cor preta: 600 x 600 dpi; b) Em cores: 600 x 600 dpi. 7. Tempo de saída da primeira página: a) Na cor preta: máximo de 9,5 segundos; b) Em cores: máximo de 10,5 segundos. 8. Impressão frente e verso: a) Duplex automático (padrão). 9. Interfaces: a) 01 (uma) porta de rede Gigabit Ethernet com conector RJ-45; b) 01 (uma) porta USB, Tipo A, na versão 2.0; c) 01 (uma) porta USB, Tipo B, na versão 2.0. 10. Quantidade de bandejas: a) 03 (três) bandejas, sendo 01 (uma) bandeja padrão, 01 (uma) bandeja de alimentação manual e 01 (um) alimentador de originais (ADF). 11. Tamanhos de papel suportados: a) Carta, Ofício, A4, A5, B5. 12. Capacidade das bandejas de entrada: a) Bandeja padrão: 250 folhas; b) Bandeja de alimentação manual: 1 folha; c) Alimentador de originais (ADF): 50 folhas. 13. Capacidade da bandeja de saída: a) 150 folhas. 14. Velocidade de cópia: a) Na cor preta: 33 cpm; b) Em cores: 33 cpm. 15. Resolução de digitalização: a) 600 x 600 dpi. 16. Ampliação/Redução da cópia: a) De 25% a 400%. 17. Modos de digitalização suportados: a) Digitalizar para e-mail; b) Digitalizar para pasta de rede; c) Digitalizar para unidade USB. 18. Formatos de arquivos digitalizados: a) PDF, JPG, TIFF. 19. FAX: a) Taxa de transmissão: 33,6 Kbps; b) Velocidade: máximo de 5 segundos por página. 20. Emulação: a) PCL 5c, PCL 6, PostScript 3. 21. Sistemas operacionais compatíveis: a) Microsoft Windows 10/11, Apple Mac OS, Linux. 22. Protocolos de rede: a) TCP/IP IPv6, TCP/IP IPv4. 23. Ciclo de vida (trabalho) mensal: a) Pelo menos 50.000 páginas. 24. Volume de trabalho mensal recomendado: a) Pelo menos 4.000 páginas. 25. Requisitos elétricos: a) Tensão de alimentação de 110-127 VAC (+/-10%), 60 Hz; b) Fonte de alimentação interna. 26. Acessórios: a) Deve acompanhar os seguintes itens: i. 01 (um) cabo de alimentação com 03 (três) pinos segundo a norma NBR 14136, compatível com a potência elétrica do equipamento; ii. Cartuchos de toners originais nas cores preta, ciano, magenta e amarela. Não serão aceitos cartuchos remanufaturados, recondicionados, compatíveis ou similares, uma vez que o equipamento estará em período de garantia; iii. Manuais técnicos de instalação e operação em português. 27. Orientações Gerais: b) Os equipamentos ofertados devem ser NOVOS e fabricados com materiais de alta qualidade. NÃO SERÃO ACEITOS, em nenhuma hipótese, equipamentos, peças ou acessórios usados, adaptados, reformados ou remanufaturados; c) Os modelos de referência e suas respectivas fotos apresentadas neste edital têm a função de orientar as licitantes na escolha das melhores opções de produtos que se adequam às características técnicas mínimas exigidas. Assim, ressaltamos que serão aceitas outras marcas e modelos, desde que cumpram rigorosamente as exigências técnicas mínimas estipuladas neste edital; d) NÃO SERÃO ACEITAS propostas iniciais com descrições genéricas, tais como “conforme edital”, “de acordo com o edital”, etc., sendo DESCLASSIFICADAS caso não apresentem a descrição exata da marca e modelo dos itens ofertados. 28. Garantia: a) Prazo mínimo de garantia de 12 (doze) meses, a contar do recebimento definitivo dos equipamentos e de seus acessórios; b) O atendimento no período coberto pela garantia inclui mão de obra e peças. Em caso da necessidade de manutenção do equipamento fora das dependências físicas da Contratante, o transporte, seguros e outros custos deverão ser cobertos pela mesma garantia. 29. Embalagem: a) O equipamento deverá vir acondicionado em embalagem individual adequada de forma a garantir a máxima proteção durante o transporte e armazenagem.</t>
   </si>
   <si>
     <t>Impressora Laser Monocromática, de mesa, nova, com as seguintes especificações mínimas: 1. Tecnologia de impressão: a) Laser monocromática. 2. Velocidade de impressão: a) Em papel A4: 20 ppm. 3. Memória RAM: a) Mínimo de 64 MB. 4. Processador: a) Velocidade de 400 MHz. 5. Painel de operação: a) Com botões (Liga/Desliga, Cancelar, Wifi); b) Com LEDs indicadores (Liga/Desliga, Wifi, Toner, Atenção). 6. Resolução de impressão: a) Até 1.200 x 1.200 dpi. 7. Tempo de saída da primeira página: a) Máximo de 8,3 segundos. 8. Impressão frente e verso: a) Duplex manual. 9. Interfaces e Conectividade: a) Rede Wifi 802.11 b/g/n; b) 01 (uma) porta USB 2.0. 10. Impressão via dispositivos móveis: a) Suporte às seguintes tecnologias: Apple AirPrint, Google Cloud Print, HP Smart App, Wi-Fi Direct. 11. Tamanhos de papel suportados: a) Carta, Ofício, A4, A5, B5. 12. Capacidade da bandeja de entrada: a) 150 folhas. 13. Capacidade da bandeja de saída: a) 100 folhas. 14. Sistemas operacionais compatíveis: a) Microsoft Windows 10/11, Apple Mac OS, Linux. 15. Ciclo de vida (trabalho) mensal: a) Pelo menos 10.000 páginas. 16. Volume de trabalho mensal recomendado: a) Pelo menos 1.500 páginas. 17. Requisitos elétricos: a) Tensão de alimentação de 110-127 VAC (+/-10%), 60 Hz; b) Fonte de alimentação interna. 18. Acessórios: a) Deve acompanhar os seguintes itens: i. 01 (um) cabo de alimentação com 03 (três) pinos segundo a norma NBR 14136, compatível com a potência elétrica do equipamento; ii. 01 (um) cabo USB compatível com o equipamento; iii. Cartucho de toner original na cor preta. Não será aceito cartucho remanufaturado, recondicionado, compatível ou similar, uma vez que o equipamento estará em período de garantia; iv. Manuais técnicos de instalação e operação em português. 19. Orientações Gerais: a) Os equipamentos ofertados devem ser NOVOS e fabricados com materiais de alta qualidade. NÃO SERÃO ACEITOS, em nenhuma hipótese, equipamentos usados, adaptados, reformados ou remanufaturados; b) O modelo de referência e sua respectiva foto apresentada neste edital têm a função de orientar as licitantes na escolha da melhor opção de produto que se adéqua às características técnicas mínimas exigidas. Assim, ressaltamos que serão aceitas outras marcas e modelos, desde que cumpram rigorosamente as exigências técnicas mínimas estipuladas neste edital; c) As licitantes deverão apresentar descrição técnica detalhada dos equipamentos ofertados e anexar a respectiva documentação, para comprovação das especificações técnicas mínimas. A proposta que não cumprir o disposto neste item será DESCLASSIFICADA; d) NÃO SERÃO ACEITAS propostas iniciais com descrições genéricas, tais como “conforme edital”, “de acordo com o edital”, etc., sendo DESCLASSIFICADAS caso não apresentem a descrição exata da marca e modelo dos itens ofertados. 20. Garantia: a) Prazo mínimo de garantia de 12 (doze) meses, a contar do recebimento definitivo dos equipamentos e de seus acessórios; b) O atendimento no período coberto pela garantia inclui mão de obra e peças. Em caso da necessidade de manutenção do equipamento fora das dependências físicas da Contratante, o transporte, seguros e outros custos deverão ser cobertos pela mesma garantia. 21. Embalagem: a) O equipamento deverá vir acondicionado em embalagem individual adequada de forma a garantir a máxima proteção durante o transporte e armazenagem.</t>
